--- a/database/industries/folad/hormoz/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/folad/hormoz/income/quarterly/rial_cumulative.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\hormoz\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\hormoz\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296E1EA-1EC6-4157-B4FB-C79649582908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -36,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>6 ماهه منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>9 ماهه منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>12 ماهه منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>3 ماهه منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>6 ماهه منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>9 ماهه منتهی به 1400/09</t>
   </si>
   <si>
@@ -52,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-14 (5)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-03-15 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-29 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-13 (5)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -123,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,7 +335,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -316,7 +347,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -363,6 +394,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -398,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,21 +614,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
+    <col min="4" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="29" customWidth="1"/>
+    <col min="7" max="9" width="28" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -571,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -593,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -602,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -613,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -624,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -633,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -654,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -684,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>42850994</v>
+      </c>
+      <c r="E11" s="13">
+        <v>76745696</v>
+      </c>
+      <c r="F11" s="13">
+        <v>134522191</v>
+      </c>
+      <c r="G11" s="13">
+        <v>52463805</v>
+      </c>
+      <c r="H11" s="13">
+        <v>102598264</v>
+      </c>
+      <c r="I11" s="13">
         <v>163865794</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>221404720</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>48797480</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>89964578</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>141519631</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-24923113</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-43530550</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-76944388</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-32047835</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-51859003</v>
+      </c>
+      <c r="I12" s="11">
         <v>-87980472</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-127265274</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-32448257</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-62418157</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-107515985</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>17927881</v>
+      </c>
+      <c r="E13" s="15">
+        <v>33215146</v>
+      </c>
+      <c r="F13" s="15">
+        <v>57577803</v>
+      </c>
+      <c r="G13" s="15">
+        <v>20415970</v>
+      </c>
+      <c r="H13" s="15">
+        <v>50739261</v>
+      </c>
+      <c r="I13" s="15">
         <v>75885322</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>94139446</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>16349223</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>27546421</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>34003646</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-873287</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-1508367</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-2341745</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-954441</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2018289</v>
+      </c>
+      <c r="I14" s="11">
         <v>-3045695</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-4748509</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1298586</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-3035681</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-4843415</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -789,157 +986,277 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>6905309</v>
+      </c>
+      <c r="E16" s="11">
+        <v>7018729</v>
+      </c>
+      <c r="F16" s="11">
+        <v>4641506</v>
+      </c>
+      <c r="G16" s="11">
+        <v>135721</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-1721391</v>
+      </c>
+      <c r="I16" s="11">
         <v>-1184597</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>407127</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-388640</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>1707857</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>7298428</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>23959903</v>
+      </c>
+      <c r="E17" s="15">
+        <v>38725508</v>
+      </c>
+      <c r="F17" s="15">
+        <v>59877564</v>
+      </c>
+      <c r="G17" s="15">
+        <v>19597250</v>
+      </c>
+      <c r="H17" s="15">
+        <v>46999581</v>
+      </c>
+      <c r="I17" s="15">
         <v>71655030</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>89798064</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>14661997</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>26218597</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>36458659</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-819643</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-1517191</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-2384228</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-771051</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-906433</v>
+      </c>
+      <c r="I18" s="11">
         <v>-1051817</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-1753460</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-828780</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-1757092</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-3121481</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>353824</v>
+      </c>
+      <c r="E19" s="13">
+        <v>811046</v>
+      </c>
+      <c r="F19" s="13">
+        <v>-315283</v>
+      </c>
+      <c r="G19" s="13">
+        <v>-54433</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-43198</v>
+      </c>
+      <c r="I19" s="13">
         <v>150461</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>-661091</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>-130968</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>3226834</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>1773359</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>23494084</v>
+      </c>
+      <c r="E20" s="17">
+        <v>38019363</v>
+      </c>
+      <c r="F20" s="17">
+        <v>57178053</v>
+      </c>
+      <c r="G20" s="17">
+        <v>18771766</v>
+      </c>
+      <c r="H20" s="17">
+        <v>46049950</v>
+      </c>
+      <c r="I20" s="17">
         <v>70753674</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>87383513</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>13702249</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>27688339</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>35110537</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-2307568</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-4268196</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-5153126</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-2162963</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-4436910</v>
+      </c>
+      <c r="I21" s="13">
         <v>-8071151</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-7146516</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-1620328</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2623456</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-4004399</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>21186516</v>
+      </c>
+      <c r="E22" s="17">
+        <v>33751167</v>
+      </c>
+      <c r="F22" s="17">
+        <v>52024927</v>
+      </c>
+      <c r="G22" s="17">
+        <v>16608803</v>
+      </c>
+      <c r="H22" s="17">
+        <v>41613040</v>
+      </c>
+      <c r="I22" s="17">
         <v>62682523</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>80236997</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>12081921</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>25064883</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>31106138</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -957,52 +1274,97 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>21186516</v>
+      </c>
+      <c r="E24" s="17">
+        <v>33751167</v>
+      </c>
+      <c r="F24" s="17">
+        <v>52024927</v>
+      </c>
+      <c r="G24" s="17">
+        <v>16608803</v>
+      </c>
+      <c r="H24" s="17">
+        <v>41613040</v>
+      </c>
+      <c r="I24" s="17">
         <v>62682523</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>80236997</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>12081921</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>25064883</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>31106138</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>847</v>
+      </c>
+      <c r="E25" s="13">
+        <v>1350</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2081</v>
+      </c>
+      <c r="G25" s="13">
+        <v>664</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1665</v>
+      </c>
+      <c r="I25" s="13">
         <v>2507</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>3209</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>483</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>1003</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>1244</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
@@ -1020,29 +1382,59 @@
       <c r="H26" s="11">
         <v>25000000</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="J26" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="K26" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="L26" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="M26" s="11">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>2507</v>
+        <v>432</v>
       </c>
       <c r="E27" s="13">
-        <v>3209</v>
+        <v>689</v>
       </c>
       <c r="F27" s="13">
-        <v>483</v>
+        <v>1062</v>
       </c>
       <c r="G27" s="13">
-        <v>1003</v>
+        <v>339</v>
       </c>
       <c r="H27" s="13">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>849</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1279</v>
+      </c>
+      <c r="J27" s="13">
+        <v>1637</v>
+      </c>
+      <c r="K27" s="13">
+        <v>247</v>
+      </c>
+      <c r="L27" s="13">
+        <v>512</v>
+      </c>
+      <c r="M27" s="13">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1050,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
